--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.8967953831508</v>
+        <v>29.747261</v>
       </c>
       <c r="H2">
-        <v>28.8967953831508</v>
+        <v>59.494522</v>
       </c>
       <c r="I2">
-        <v>0.1903764027341442</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J2">
-        <v>0.1903764027341442</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.01587798018174</v>
+        <v>1.307929333333333</v>
       </c>
       <c r="N2">
-        <v>4.01587798018174</v>
+        <v>3.923788</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="Q2">
-        <v>116.0460042770127</v>
+        <v>38.90731524822267</v>
       </c>
       <c r="R2">
-        <v>116.0460042770127</v>
+        <v>233.443891489336</v>
       </c>
       <c r="S2">
-        <v>0.1903764027341442</v>
+        <v>0.04633916337254688</v>
       </c>
       <c r="T2">
-        <v>0.1903764027341442</v>
+        <v>0.03313152016356831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.4935243023309</v>
+        <v>29.747261</v>
       </c>
       <c r="H3">
-        <v>20.4935243023309</v>
+        <v>59.494522</v>
       </c>
       <c r="I3">
-        <v>0.1350143981120275</v>
+        <v>0.1897261270801772</v>
       </c>
       <c r="J3">
-        <v>0.1350143981120275</v>
+        <v>0.1356501617082849</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.01587798018174</v>
+        <v>4.047117</v>
       </c>
       <c r="N3">
-        <v>4.01587798018174</v>
+        <v>12.141351</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7557576065790654</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7557576065790653</v>
       </c>
       <c r="Q3">
-        <v>82.29949298205001</v>
+        <v>120.390645696537</v>
       </c>
       <c r="R3">
-        <v>82.29949298205001</v>
+        <v>722.343874179222</v>
       </c>
       <c r="S3">
-        <v>0.1350143981120275</v>
+        <v>0.1433869637076303</v>
       </c>
       <c r="T3">
-        <v>0.1350143981120275</v>
+        <v>0.1025186415447166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.7407743079077</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H4">
-        <v>28.7407743079077</v>
+        <v>65.250653</v>
       </c>
       <c r="I4">
-        <v>0.1893485125940211</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J4">
-        <v>0.1893485125940211</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>4.01587798018174</v>
+        <v>1.307929333333333</v>
       </c>
       <c r="N4">
-        <v>4.01587798018174</v>
+        <v>3.923788</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="Q4">
-        <v>115.4194426764996</v>
+        <v>28.44774769261822</v>
       </c>
       <c r="R4">
-        <v>115.4194426764996</v>
+        <v>256.029729233564</v>
       </c>
       <c r="S4">
-        <v>0.1893485125940211</v>
+        <v>0.03388167031055808</v>
       </c>
       <c r="T4">
-        <v>0.1893485125940211</v>
+        <v>0.03633701478525198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.5696357641836</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H5">
-        <v>54.5696357641836</v>
+        <v>65.250653</v>
       </c>
       <c r="I5">
-        <v>0.3595129085267109</v>
+        <v>0.1387214964445808</v>
       </c>
       <c r="J5">
-        <v>0.3595129085267109</v>
+        <v>0.1487743969271857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.01587798018174</v>
+        <v>4.047117</v>
       </c>
       <c r="N5">
-        <v>4.01587798018174</v>
+        <v>12.141351</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7557576065790654</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7557576065790653</v>
       </c>
       <c r="Q5">
-        <v>219.1449986519229</v>
+        <v>88.025675672467</v>
       </c>
       <c r="R5">
-        <v>219.1449986519229</v>
+        <v>792.231081052203</v>
       </c>
       <c r="S5">
-        <v>0.3595129085267109</v>
+        <v>0.1048398261340227</v>
       </c>
       <c r="T5">
-        <v>0.3595129085267109</v>
+        <v>0.1124373821419337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.2969937086613</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H6">
-        <v>17.2969937086613</v>
+        <v>93.011927</v>
       </c>
       <c r="I6">
-        <v>0.1139551772682073</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J6">
-        <v>0.1139551772682073</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.01587798018174</v>
+        <v>1.307929333333333</v>
       </c>
       <c r="N6">
-        <v>4.01587798018174</v>
+        <v>3.923788</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2442423934209346</v>
       </c>
       <c r="Q6">
-        <v>69.46261615795501</v>
+        <v>40.55100922438622</v>
       </c>
       <c r="R6">
-        <v>69.46261615795501</v>
+        <v>364.959083019476</v>
       </c>
       <c r="S6">
-        <v>0.1139551772682073</v>
+        <v>0.04829682617220237</v>
       </c>
       <c r="T6">
-        <v>0.1139551772682073</v>
+        <v>0.05179681139135539</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78997169000015</v>
+        <v>31.00397566666667</v>
       </c>
       <c r="H7">
-        <v>1.78997169000015</v>
+        <v>93.011927</v>
       </c>
       <c r="I7">
-        <v>0.01179260076488901</v>
+        <v>0.1977413728048684</v>
       </c>
       <c r="J7">
-        <v>0.01179260076488901</v>
+        <v>0.2120713389099788</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.01587798018174</v>
+        <v>4.047117</v>
       </c>
       <c r="N7">
-        <v>4.01587798018174</v>
+        <v>12.141351</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.7557576065790654</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.7557576065790653</v>
       </c>
       <c r="Q7">
-        <v>7.188307895020298</v>
+        <v>125.476716988153</v>
       </c>
       <c r="R7">
-        <v>7.188307895020298</v>
+        <v>1129.290452893377</v>
       </c>
       <c r="S7">
-        <v>0.01179260076488901</v>
+        <v>0.1494445466326661</v>
       </c>
       <c r="T7">
-        <v>0.01179260076488901</v>
+        <v>0.1602745275186234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H8">
+        <v>164.044102</v>
+      </c>
+      <c r="I8">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J8">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.923788</v>
+      </c>
+      <c r="O8">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P8">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q8">
+        <v>71.51936432204178</v>
+      </c>
+      <c r="R8">
+        <v>643.6742788983761</v>
+      </c>
+      <c r="S8">
+        <v>0.08518057559294556</v>
+      </c>
+      <c r="T8">
+        <v>0.09135346062831563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>54.68136733333333</v>
+      </c>
+      <c r="H9">
+        <v>164.044102</v>
+      </c>
+      <c r="I9">
+        <v>0.3487542616983074</v>
+      </c>
+      <c r="J9">
+        <v>0.37402786366769</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.047117</v>
+      </c>
+      <c r="N9">
+        <v>12.141351</v>
+      </c>
+      <c r="O9">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P9">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q9">
+        <v>221.301891317978</v>
+      </c>
+      <c r="R9">
+        <v>1991.717021861802</v>
+      </c>
+      <c r="S9">
+        <v>0.2635736861053618</v>
+      </c>
+      <c r="T9">
+        <v>0.2826744030393744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>17.571287</v>
+      </c>
+      <c r="H10">
+        <v>52.713861</v>
+      </c>
+      <c r="I10">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J10">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.923788</v>
+      </c>
+      <c r="O10">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P10">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q10">
+        <v>22.98200169171867</v>
+      </c>
+      <c r="R10">
+        <v>206.838015225468</v>
+      </c>
+      <c r="S10">
+        <v>0.02737188943072471</v>
+      </c>
+      <c r="T10">
+        <v>0.02935548164621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>17.571287</v>
+      </c>
+      <c r="H11">
+        <v>52.713861</v>
+      </c>
+      <c r="I11">
+        <v>0.1120685440694613</v>
+      </c>
+      <c r="J11">
+        <v>0.1201899524281925</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.047117</v>
+      </c>
+      <c r="N11">
+        <v>12.141351</v>
+      </c>
+      <c r="O11">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P11">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q11">
+        <v>71.11305432957901</v>
+      </c>
+      <c r="R11">
+        <v>640.017488966211</v>
+      </c>
+      <c r="S11">
+        <v>0.08469665463873657</v>
+      </c>
+      <c r="T11">
+        <v>0.09083447078198249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.0364265</v>
+      </c>
+      <c r="H12">
+        <v>4.072853</v>
+      </c>
+      <c r="I12">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J12">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.307929333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.923788</v>
+      </c>
+      <c r="O12">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="P12">
+        <v>0.2442423934209346</v>
+      </c>
+      <c r="Q12">
+        <v>2.663501954527333</v>
+      </c>
+      <c r="R12">
+        <v>15.981011727164</v>
+      </c>
+      <c r="S12">
+        <v>0.003172268541956984</v>
+      </c>
+      <c r="T12">
+        <v>0.002268104806233248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.0364265</v>
+      </c>
+      <c r="H13">
+        <v>4.072853</v>
+      </c>
+      <c r="I13">
+        <v>0.0129881979026049</v>
+      </c>
+      <c r="J13">
+        <v>0.009286286358668003</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.047117</v>
+      </c>
+      <c r="N13">
+        <v>12.141351</v>
+      </c>
+      <c r="O13">
+        <v>0.7557576065790654</v>
+      </c>
+      <c r="P13">
+        <v>0.7557576065790653</v>
+      </c>
+      <c r="Q13">
+        <v>8.2416563074005</v>
+      </c>
+      <c r="R13">
+        <v>49.449937844403</v>
+      </c>
+      <c r="S13">
+        <v>0.009815929360647919</v>
+      </c>
+      <c r="T13">
+        <v>0.007018181552434753</v>
       </c>
     </row>
   </sheetData>
